--- a/phone.xlsx
+++ b/phone.xlsx
@@ -38,7 +38,8 @@
     <t>0866977114</t>
   </si>
   <si>
-    <t>Lễ Thánh Gia: Ngày 29/12 dương lịch là ngày Lễ Thánh Gia, dành để tưởng nhớ và tôn vinh gia đình Thánh (Chúa Giêsu, Đức Maria và Thánh Giuse).</t>
+    <t>Lễ Giáng Sinh – hay còn gọi là lễ Thiên Chúa Giáng Sinh – là ngày lễ trọng đại của Kitô giáo, kỷ niệm ngày Chúa Giêsu giáng sinh tại Bethlehem.
+Ngày nay, Giáng Sinh đã vượt ra khỏi phạm vi tôn giáo để trở thành ngày lễ vui của toàn nhân loại, được chào đón nồng nhiệt ở khắp nơi trên thế giới với niềm tin yêu và hy vọng vào tình thương của Thiên Chúa.</t>
   </si>
 </sst>
 </file>
@@ -729,7 +730,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1001,7 +1002,7 @@
   <dimension ref="A1:B992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1018,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="38.25" spans="1:2">
+    <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="12.75" spans="1:1">
+    <row r="3" spans="1:1">
       <c r="A3" s="6"/>
     </row>
     <row r="4" ht="12.75" spans="1:1">
